--- a/data/보험가격준비금위험액_일반/20210723/일반_사업비율_202012.xlsx
+++ b/data/보험가격준비금위험액_일반/20210723/일반_사업비율_202012.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97">
   <si>
     <t>RRNR_DVCD</t>
   </si>
@@ -26,12 +26,246 @@
     <t>EXP_RT</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>A001</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>A002</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>A003</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>A004</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>A005</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>A006</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>A007</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>A008</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>A010</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>A100</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>A002</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>A003</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>A004</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>A005</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>A006</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>A007</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>A009</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>A010</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>A011</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>A100</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>A100</t>
+  </si>
+  <si>
     <t>03</t>
   </si>
   <si>
     <t>01</t>
   </si>
   <si>
+    <t>A001</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>A002</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>A003</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>A004</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>A005</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>A006</t>
   </si>
   <si>
@@ -41,6 +275,15 @@
     <t>01</t>
   </si>
   <si>
+    <t>A007</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>A009</t>
   </si>
   <si>
@@ -54,177 +297,6 @@
   </si>
   <si>
     <t>03</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>A007</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>A004</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>A002</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>A003</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>A005</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>A001</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>A100</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>A006</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>A004</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>A009</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>A100</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>A010</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>A007</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>A008</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>A002</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>A003</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>A005</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>A011</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>A001</t>
-  </si>
-  <si>
-    <t>04</t>
   </si>
   <si>
     <t>02</t>
@@ -582,7 +654,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D32"/>
   <sheetData>
     <row r="1" ht="15">
       <c r="A1" t="s">
@@ -609,7 +681,7 @@
         <v>6</v>
       </c>
       <c r="D2">
-        <v>-0.00615408657980769</v>
+        <v>0.050605385515</v>
       </c>
     </row>
     <row r="3" ht="15">
@@ -623,7 +695,7 @@
         <v>9</v>
       </c>
       <c r="D3">
-        <v>0.021474919404</v>
+        <v>0.02941442064</v>
       </c>
     </row>
     <row r="4" ht="15">
@@ -637,7 +709,7 @@
         <v>12</v>
       </c>
       <c r="D4">
-        <v>0.021871586474</v>
+        <v>0.034182108633</v>
       </c>
     </row>
     <row r="5" ht="15">
@@ -651,7 +723,7 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>0.025940024378</v>
+        <v>0.019614365338</v>
       </c>
     </row>
     <row r="6" ht="15">
@@ -665,7 +737,7 @@
         <v>18</v>
       </c>
       <c r="D6">
-        <v>0.026166387689</v>
+        <v>0.036249088014</v>
       </c>
     </row>
     <row r="7" ht="15">
@@ -679,7 +751,7 @@
         <v>21</v>
       </c>
       <c r="D7">
-        <v>0.02925800652</v>
+        <v>-0.00607069630587033</v>
       </c>
     </row>
     <row r="8" ht="15">
@@ -693,7 +765,7 @@
         <v>24</v>
       </c>
       <c r="D8">
-        <v>0.035560543559</v>
+        <v>0.025184052961</v>
       </c>
     </row>
     <row r="9" ht="15">
@@ -707,7 +779,7 @@
         <v>27</v>
       </c>
       <c r="D9">
-        <v>0.036318980579</v>
+        <v>0.026431450615</v>
       </c>
     </row>
     <row r="10" ht="15">
@@ -721,7 +793,7 @@
         <v>30</v>
       </c>
       <c r="D10">
-        <v>0.050828178748</v>
+        <v>0.021691312764</v>
       </c>
     </row>
     <row r="11" ht="15">
@@ -735,7 +807,7 @@
         <v>33</v>
       </c>
       <c r="D11">
-        <v>0.037993286222</v>
+        <v>0.036137608251</v>
       </c>
     </row>
     <row r="12" ht="15">
@@ -749,7 +821,7 @@
         <v>36</v>
       </c>
       <c r="D12">
-        <v>-0.00607069630587033</v>
+        <v>0.02941442064</v>
       </c>
     </row>
     <row r="13" ht="15">
@@ -763,7 +835,7 @@
         <v>39</v>
       </c>
       <c r="D13">
-        <v>0.019614365338</v>
+        <v>0.034182108633</v>
       </c>
     </row>
     <row r="14" ht="15">
@@ -777,7 +849,7 @@
         <v>42</v>
       </c>
       <c r="D14">
-        <v>0.021469359067</v>
+        <v>0.019614365338</v>
       </c>
     </row>
     <row r="15" ht="15">
@@ -791,7 +863,7 @@
         <v>45</v>
       </c>
       <c r="D15">
-        <v>0.021470370297</v>
+        <v>0.036249088014</v>
       </c>
     </row>
     <row r="16" ht="15">
@@ -805,7 +877,7 @@
         <v>48</v>
       </c>
       <c r="D16">
-        <v>0.021691312764</v>
+        <v>-0.00607069630587033</v>
       </c>
     </row>
     <row r="17" ht="15">
@@ -833,7 +905,7 @@
         <v>54</v>
       </c>
       <c r="D18">
-        <v>0.026431450615</v>
+        <v>0.021469359067</v>
       </c>
     </row>
     <row r="19" ht="15">
@@ -847,7 +919,7 @@
         <v>57</v>
       </c>
       <c r="D19">
-        <v>0.02941442064</v>
+        <v>0.021691312764</v>
       </c>
     </row>
     <row r="20" ht="15">
@@ -861,7 +933,7 @@
         <v>60</v>
       </c>
       <c r="D20">
-        <v>0.034182108633</v>
+        <v>0.038805908082</v>
       </c>
     </row>
     <row r="21" ht="15">
@@ -875,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="D21">
-        <v>0.036249088014</v>
+        <v>0.021470370297</v>
       </c>
     </row>
     <row r="22" ht="15">
@@ -889,7 +961,7 @@
         <v>66</v>
       </c>
       <c r="D22">
-        <v>0.038805908082</v>
+        <v>0.036137608251</v>
       </c>
     </row>
     <row r="23" ht="15">
@@ -903,7 +975,7 @@
         <v>69</v>
       </c>
       <c r="D23">
-        <v>0.050605385515</v>
+        <v>0.050828178748</v>
       </c>
     </row>
     <row r="24" ht="15">
@@ -917,7 +989,119 @@
         <v>72</v>
       </c>
       <c r="D24">
-        <v>0.036137608251</v>
+        <v>0.02925800652</v>
+      </c>
+    </row>
+    <row r="25" ht="15">
+      <c r="A25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25">
+        <v>0.035560543559</v>
+      </c>
+    </row>
+    <row r="26" ht="15">
+      <c r="A26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26">
+        <v>0.026166387689</v>
+      </c>
+    </row>
+    <row r="27" ht="15">
+      <c r="A27" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27">
+        <v>0.036318980579</v>
+      </c>
+    </row>
+    <row r="28" ht="15">
+      <c r="A28" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28">
+        <v>-0.00615408657980769</v>
+      </c>
+    </row>
+    <row r="29" ht="15">
+      <c r="A29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29">
+        <v>0.025940024378</v>
+      </c>
+    </row>
+    <row r="30" ht="15">
+      <c r="A30" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30">
+        <v>0.021474919404</v>
+      </c>
+    </row>
+    <row r="31" ht="15">
+      <c r="A31" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31">
+        <v>0.021871586474</v>
+      </c>
+    </row>
+    <row r="32" ht="15">
+      <c r="A32" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32">
+        <v>0.037993286222</v>
       </c>
     </row>
   </sheetData>
